--- a/results/Kx5.xlsx
+++ b/results/Kx5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sx5standings\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E465D3-7409-4A2B-B1EB-3445BDCFB243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB6D7A5-6D7A-4ADF-8A2E-E0C07AFE8816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,103 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="232">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Forename</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Surname</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Club</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cat</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>No.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>GenPos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>CatPos</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="229">
   <si>
     <r>
       <rPr>
@@ -2321,40 +2225,34 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Blythe</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lindsay</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>DNF</t>
-    </r>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
     <t>ResultAsText</t>
+  </si>
+  <si>
+    <t>Forename</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>GenPos</t>
+  </si>
+  <si>
+    <t>CatPos</t>
   </si>
 </sst>
 </file>
@@ -2364,20 +2262,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2392,24 +2282,24 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2480,57 +2370,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2870,10 +2751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2889,3555 +2770,3524 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="E2" s="3">
         <v>587</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="6">
         <v>1.162E-2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="14" t="str">
+      <c r="J2" s="12" t="str">
         <f>TEXT(F2,"hh:mm:ss")</f>
         <v>00:16:44</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
         <v>652</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="6">
         <v>1.2106E-2</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="J3" s="14" t="str">
+      <c r="J3" s="12" t="str">
         <f t="shared" ref="J3:J66" si="0">TEXT(F3,"hh:mm:ss")</f>
         <v>00:17:26</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
         <v>624</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="6">
         <v>1.2187999999999999E-2</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <v>3</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="J4" s="14" t="str">
+      <c r="J4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:17:33</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>549</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="6">
         <v>1.2546E-2</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="3">
         <v>4</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="14" t="str">
+      <c r="J5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:18:04</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
         <v>577</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="6">
         <v>1.3067E-2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="3">
         <v>5</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="3">
         <v>5</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="3">
         <v>4</v>
       </c>
-      <c r="J6" s="14" t="str">
+      <c r="J6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:18:49</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <v>586</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="6">
         <v>1.3079E-2</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="3">
         <v>6</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <v>6</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="3">
         <v>2</v>
       </c>
-      <c r="J7" s="14" t="str">
+      <c r="J7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:18:50</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>551</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="6">
         <v>1.3310000000000001E-2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="3">
         <v>7</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="3">
         <v>7</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="3">
         <v>5</v>
       </c>
-      <c r="J8" s="14" t="str">
+      <c r="J8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:19:10</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
         <v>567</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="6">
         <v>1.3414000000000001E-2</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="3">
         <v>8</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="3">
         <v>8</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="3">
         <v>6</v>
       </c>
-      <c r="J9" s="14" t="str">
+      <c r="J9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:19:19</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>569</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="6">
         <v>1.3436999999999999E-2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="3">
         <v>9</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="3">
         <v>9</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="3">
         <v>3</v>
       </c>
-      <c r="J10" s="14" t="str">
+      <c r="J10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:19:21</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
         <v>657</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="6">
         <v>1.3448999999999999E-2</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="3">
         <v>10</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="3">
         <v>10</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="3">
         <v>7</v>
       </c>
-      <c r="J11" s="14" t="str">
+      <c r="J11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:19:22</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
         <v>585</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="6">
         <v>1.3472E-2</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="3">
         <v>11</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="3">
         <v>11</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="14" t="str">
+      <c r="J12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:19:24</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
         <v>584</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="6">
         <v>1.3646E-2</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="3">
         <v>12</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="3">
         <v>12</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="3">
         <v>8</v>
       </c>
-      <c r="J13" s="14" t="str">
+      <c r="J13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:19:39</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
         <v>616</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="6">
         <v>1.3691999999999999E-2</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="3">
         <v>13</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="3">
         <v>13</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="3">
         <v>2</v>
       </c>
-      <c r="J14" s="14" t="str">
+      <c r="J14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:19:43</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>635</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="6">
         <v>1.4329E-2</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="3">
         <v>14</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="3">
         <v>14</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="3">
         <v>9</v>
       </c>
-      <c r="J15" s="14" t="str">
+      <c r="J15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:20:38</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3">
         <v>598</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="6">
         <v>1.4397999999999999E-2</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="3">
         <v>15</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="3">
         <v>1</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="3">
         <v>1</v>
       </c>
-      <c r="J16" s="14" t="str">
+      <c r="J16" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:20:44</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="3">
         <v>611</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="6">
         <v>1.4397999999999999E-2</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="3">
         <v>16</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="3">
         <v>2</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="3">
         <v>2</v>
       </c>
-      <c r="J17" s="14" t="str">
+      <c r="J17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:20:44</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>641</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="6">
         <v>1.4664E-2</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="3">
         <v>17</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="3">
         <v>15</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="3">
         <v>10</v>
       </c>
-      <c r="J18" s="14" t="str">
+      <c r="J18" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:21:07</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="6" t="s">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>595</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1.4734000000000001E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>18</v>
+      </c>
+      <c r="H19" s="3">
+        <v>16</v>
+      </c>
+      <c r="I19" s="3">
         <v>11</v>
       </c>
-      <c r="E19" s="7">
-        <v>595</v>
-      </c>
-      <c r="F19" s="12">
-        <v>1.4734000000000001E-2</v>
-      </c>
-      <c r="G19" s="7">
-        <v>18</v>
-      </c>
-      <c r="H19" s="7">
-        <v>16</v>
-      </c>
-      <c r="I19" s="7">
-        <v>11</v>
-      </c>
-      <c r="J19" s="14" t="str">
+      <c r="J19" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:21:13</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3">
         <v>654</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="6">
         <v>1.4919E-2</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="3">
         <v>19</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="3">
         <v>17</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="3">
         <v>3</v>
       </c>
-      <c r="J20" s="14" t="str">
+      <c r="J20" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:21:29</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3">
         <v>556</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="6">
         <v>1.5219999999999999E-2</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="3">
         <v>20</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="3">
         <v>18</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="3">
         <v>4</v>
       </c>
-      <c r="J21" s="14" t="str">
+      <c r="J21" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:21:55</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3">
         <v>559</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="6">
         <v>1.5301E-2</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="3">
         <v>21</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="3">
         <v>3</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="3">
         <v>3</v>
       </c>
-      <c r="J22" s="14" t="str">
+      <c r="J22" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:22:02</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
         <v>555</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="6">
         <v>1.5324000000000001E-2</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="3">
         <v>22</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="3">
         <v>19</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="3">
         <v>4</v>
       </c>
-      <c r="J23" s="14" t="str">
+      <c r="J23" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:22:04</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
         <v>560</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="6">
         <v>1.5358999999999999E-2</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="3">
         <v>23</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="3">
         <v>20</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="3">
         <v>5</v>
       </c>
-      <c r="J24" s="14" t="str">
+      <c r="J24" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:22:07</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="3">
         <v>625</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="6">
         <v>1.5428000000000001E-2</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="3">
         <v>24</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="3">
         <v>4</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="3">
         <v>1</v>
       </c>
-      <c r="J25" s="14" t="str">
+      <c r="J25" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:22:13</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>642</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="6">
         <v>1.5428000000000001E-2</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="3">
         <v>25</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="3">
         <v>21</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="3">
         <v>12</v>
       </c>
-      <c r="J26" s="14" t="str">
+      <c r="J26" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:22:13</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>571</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="6">
         <v>1.5498E-2</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="3">
         <v>26</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="3">
         <v>22</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="3">
         <v>13</v>
       </c>
-      <c r="J27" s="14" t="str">
+      <c r="J27" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:22:19</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="7">
+      <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="3">
         <v>656</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="6">
         <v>1.5556E-2</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="3">
         <v>27</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="3">
         <v>5</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="3">
         <v>2</v>
       </c>
-      <c r="J28" s="14" t="str">
+      <c r="J28" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:22:24</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="A29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="3">
         <v>655</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="6">
         <v>1.5729E-2</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="3">
         <v>28</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="3">
         <v>23</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="3">
         <v>5</v>
       </c>
-      <c r="J29" s="14" t="str">
+      <c r="J29" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:22:39</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="A30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="3">
         <v>574</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="6">
         <v>1.5903E-2</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="3">
         <v>29</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="3">
         <v>6</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="3">
         <v>4</v>
       </c>
-      <c r="J30" s="14" t="str">
+      <c r="J30" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:22:54</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3">
         <v>620</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="6">
         <v>1.5914000000000001E-2</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="3">
         <v>30</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="3">
         <v>24</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="3">
         <v>6</v>
       </c>
-      <c r="J31" s="14" t="str">
+      <c r="J31" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:22:55</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="A32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>644</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="6">
         <v>1.6018999999999999E-2</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="3">
         <v>31</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="3">
         <v>25</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="3">
         <v>14</v>
       </c>
-      <c r="J32" s="14" t="str">
+      <c r="J32" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:23:04</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="A33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="3">
         <v>591</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="6">
         <v>1.6076E-2</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="3">
         <v>32</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="3">
         <v>26</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="3">
         <v>6</v>
       </c>
-      <c r="J33" s="14" t="str">
+      <c r="J33" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:23:09</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="A34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3">
         <v>604</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="6">
         <v>1.6111E-2</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="3">
         <v>33</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="3">
         <v>7</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="3">
         <v>5</v>
       </c>
-      <c r="J34" s="14" t="str">
+      <c r="J34" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:23:12</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="A35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
         <v>651</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="6">
         <v>1.6192000000000002E-2</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="3">
         <v>34</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="3">
         <v>27</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="3">
         <v>7</v>
       </c>
-      <c r="J35" s="14" t="str">
+      <c r="J35" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:23:19</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="A36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="E36" s="3">
         <v>561</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="6">
         <v>1.6204E-2</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="3">
         <v>35</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="3">
         <v>8</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="3">
         <v>3</v>
       </c>
-      <c r="J36" s="14" t="str">
+      <c r="J36" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:23:20</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="7">
+      <c r="A37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3">
         <v>601</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="6">
         <v>1.6308E-2</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="3">
         <v>36</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="3">
         <v>28</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="3">
         <v>8</v>
       </c>
-      <c r="J37" s="14" t="str">
+      <c r="J37" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:23:29</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="7">
+      <c r="A38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3">
         <v>608</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="6">
         <v>1.6343E-2</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="3">
         <v>37</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="3">
         <v>29</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="3">
         <v>15</v>
       </c>
-      <c r="J38" s="14" t="str">
+      <c r="J38" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:23:32</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="7">
+      <c r="A39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="3">
         <v>643</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="6">
         <v>1.6376999999999999E-2</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="3">
         <v>38</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="3">
         <v>30</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="3">
         <v>16</v>
       </c>
-      <c r="J39" s="14" t="str">
+      <c r="J39" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:23:35</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="7">
+      <c r="A40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="3">
         <v>599</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="6">
         <v>1.6389000000000001E-2</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="3">
         <v>39</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="3">
         <v>9</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="3">
         <v>6</v>
       </c>
-      <c r="J40" s="14" t="str">
+      <c r="J40" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:23:36</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="A41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="3">
         <v>596</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="6">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="3">
         <v>40</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="3">
         <v>31</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="3">
         <v>7</v>
       </c>
-      <c r="J41" s="14" t="str">
+      <c r="J41" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:23:37</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="7">
+      <c r="A42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
         <v>626</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="6">
         <v>1.6424000000000001E-2</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="3">
         <v>41</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="3">
         <v>32</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="3">
         <v>17</v>
       </c>
-      <c r="J42" s="14" t="str">
+      <c r="J42" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:23:39</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="7">
+      <c r="A43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3">
         <v>565</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="6">
         <v>1.6447E-2</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="3">
         <v>42</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="3">
         <v>33</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="3">
         <v>9</v>
       </c>
-      <c r="J43" s="14" t="str">
+      <c r="J43" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:23:41</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="7">
+      <c r="A44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="3">
         <v>579</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="6">
         <v>1.6539000000000002E-2</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="3">
         <v>43</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="3">
         <v>34</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="3">
         <v>8</v>
       </c>
-      <c r="J44" s="14" t="str">
+      <c r="J44" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:23:49</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="7">
+      <c r="A45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="3">
         <v>617</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="6">
         <v>1.6632000000000001E-2</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="3">
         <v>45</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="3">
         <v>10</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="3">
         <v>1</v>
       </c>
-      <c r="J45" s="14" t="str">
+      <c r="J45" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:23:57</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="7">
+      <c r="A46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3">
         <v>607</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="6">
         <v>1.6632000000000001E-2</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="3">
         <v>44</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="3">
         <v>35</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="3">
         <v>18</v>
       </c>
-      <c r="J46" s="14" t="str">
+      <c r="J46" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:23:57</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="7">
+      <c r="A47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="3">
         <v>573</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="6">
         <v>1.6806000000000001E-2</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="3">
         <v>46</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="3">
         <v>11</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="3">
         <v>7</v>
       </c>
-      <c r="J47" s="14" t="str">
+      <c r="J47" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:24:12</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="A48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3">
         <v>592</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="6">
         <v>1.6898E-2</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="3">
         <v>47</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="3">
         <v>36</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="3">
         <v>19</v>
       </c>
-      <c r="J48" s="14" t="str">
+      <c r="J48" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:24:20</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="7">
+      <c r="A49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
         <v>627</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="6">
         <v>1.6955999999999999E-2</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="3">
         <v>48</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="3">
         <v>37</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="3">
         <v>20</v>
       </c>
-      <c r="J49" s="14" t="str">
+      <c r="J49" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:24:25</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="7">
+      <c r="A50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="3">
         <v>562</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="6">
         <v>1.7059999999999999E-2</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="3">
         <v>49</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="3">
         <v>38</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="3">
         <v>10</v>
       </c>
-      <c r="J50" s="14" t="str">
+      <c r="J50" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:24:34</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="7">
+      <c r="A51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="3">
         <v>605</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="6">
         <v>1.7291999999999998E-2</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="3">
         <v>50</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="3">
         <v>39</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="3">
         <v>9</v>
       </c>
-      <c r="J51" s="14" t="str">
+      <c r="J51" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:24:54</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="7">
+      <c r="A52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="3">
         <v>619</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="6">
         <v>1.7315000000000001E-2</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="3">
         <v>51</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="3">
         <v>12</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="3">
         <v>2</v>
       </c>
-      <c r="J52" s="14" t="str">
+      <c r="J52" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:24:56</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="7">
+      <c r="A53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="3">
         <v>578</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="6">
         <v>1.7361000000000001E-2</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="3">
         <v>52</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="3">
         <v>13</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="3">
         <v>8</v>
       </c>
-      <c r="J53" s="14" t="str">
+      <c r="J53" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:25:00</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" s="7">
+      <c r="A54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="3">
         <v>553</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="6">
         <v>1.7569000000000001E-2</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="3">
         <v>53</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="3">
         <v>40</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="3">
         <v>1</v>
       </c>
-      <c r="J54" s="14" t="str">
+      <c r="J54" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:25:18</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="7">
+      <c r="A55" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="3">
         <v>612</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="6">
         <v>1.7627E-2</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="3">
         <v>54</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="3">
         <v>41</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="3">
         <v>11</v>
       </c>
-      <c r="J55" s="14" t="str">
+      <c r="J55" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:25:23</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" s="7">
+      <c r="A56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="3">
         <v>554</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="6">
         <v>1.7697000000000001E-2</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="3">
         <v>55</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="3">
         <v>14</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="3">
         <v>1</v>
       </c>
-      <c r="J56" s="14" t="str">
+      <c r="J56" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:25:29</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="7">
+      <c r="A57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="3">
         <v>615</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="6">
         <v>1.7731E-2</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="3">
         <v>56</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="3">
         <v>42</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="3">
         <v>12</v>
       </c>
-      <c r="J57" s="14" t="str">
+      <c r="J57" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:25:32</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58" s="7">
+      <c r="A58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="3">
         <v>613</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="6">
         <v>1.7801000000000001E-2</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="3">
         <v>57</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="3">
         <v>15</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="3">
         <v>4</v>
       </c>
-      <c r="J58" s="14" t="str">
+      <c r="J58" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:25:38</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="7">
+      <c r="A59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="3">
         <v>548</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="6">
         <v>1.8159999999999999E-2</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="3">
         <v>58</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="3">
         <v>43</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="3">
         <v>13</v>
       </c>
-      <c r="J59" s="14" t="str">
+      <c r="J59" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:26:09</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="7">
+      <c r="A60" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="3">
         <v>575</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="6">
         <v>1.8228999999999999E-2</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="3">
         <v>59</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="3">
         <v>44</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="3">
         <v>14</v>
       </c>
-      <c r="J60" s="14" t="str">
+      <c r="J60" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:26:15</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="7">
+      <c r="A61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="3">
         <v>636</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="6">
         <v>1.8241E-2</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="3">
         <v>60</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="3">
         <v>45</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="3">
         <v>15</v>
       </c>
-      <c r="J61" s="14" t="str">
+      <c r="J61" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:26:16</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E62" s="7">
+      <c r="A62" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="3">
         <v>637</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="6">
         <v>1.8275E-2</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="3">
         <v>61</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="3">
         <v>16</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="3">
         <v>9</v>
       </c>
-      <c r="J62" s="14" t="str">
+      <c r="J62" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:26:19</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" s="7">
+      <c r="A63" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="3">
         <v>634</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="6">
         <v>1.8322000000000001E-2</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="3">
         <v>62</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="3">
         <v>17</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="3">
         <v>5</v>
       </c>
-      <c r="J63" s="14" t="str">
+      <c r="J63" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:26:23</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="7">
+      <c r="A64" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="3">
         <v>632</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="6">
         <v>1.8332999999999999E-2</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="3">
         <v>63</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="3">
         <v>18</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="3">
         <v>3</v>
       </c>
-      <c r="J64" s="14" t="str">
+      <c r="J64" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:26:24</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" s="7">
+      <c r="A65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="3">
         <v>639</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="6">
         <v>1.8345E-2</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="3">
         <v>64</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="3">
         <v>19</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="3">
         <v>4</v>
       </c>
-      <c r="J65" s="14" t="str">
+      <c r="J65" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:26:25</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="7">
+      <c r="A66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="3">
         <v>633</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="6">
         <v>1.8356000000000001E-2</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="3">
         <v>65</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="3">
         <v>46</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="3">
         <v>16</v>
       </c>
-      <c r="J66" s="14" t="str">
+      <c r="J66" s="12" t="str">
         <f t="shared" si="0"/>
         <v>00:26:26</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E67" s="7">
+      <c r="A67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="3">
         <v>597</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="6">
         <v>1.8367999999999999E-2</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="3">
         <v>66</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="3">
         <v>47</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="3">
         <v>10</v>
       </c>
-      <c r="J67" s="14" t="str">
-        <f t="shared" ref="J67:J111" si="1">TEXT(F67,"hh:mm:ss")</f>
+      <c r="J67" s="12" t="str">
+        <f t="shared" ref="J67:J110" si="1">TEXT(F67,"hh:mm:ss")</f>
         <v>00:26:27</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" s="7">
+      <c r="A68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="3">
         <v>570</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="6">
         <v>1.8380000000000001E-2</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="3">
         <v>67</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="3">
         <v>48</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="3">
         <v>11</v>
       </c>
-      <c r="J68" s="14" t="str">
+      <c r="J68" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:26:28</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="7">
+      <c r="A69" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="3">
         <v>572</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="6">
         <v>1.8426000000000001E-2</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="3">
         <v>68</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="3">
         <v>49</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="3">
         <v>21</v>
       </c>
-      <c r="J69" s="14" t="str">
+      <c r="J69" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:26:32</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" s="7">
+      <c r="A70" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="3">
         <v>593</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="6">
         <v>1.8553E-2</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="3">
         <v>69</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="3">
         <v>20</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="3">
         <v>5</v>
       </c>
-      <c r="J70" s="14" t="str">
+      <c r="J70" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:26:43</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="7">
+      <c r="A71" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="3">
         <v>594</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="6">
         <v>1.8565000000000002E-2</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="3">
         <v>70</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="3">
         <v>50</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="3">
         <v>17</v>
       </c>
-      <c r="J71" s="14" t="str">
+      <c r="J71" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:26:44</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E72" s="7">
+      <c r="A72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="3">
         <v>590</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="6">
         <v>1.8575999999999999E-2</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="3">
         <v>71</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="3">
         <v>21</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="3">
         <v>6</v>
       </c>
-      <c r="J72" s="14" t="str">
+      <c r="J72" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:26:45</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D73" s="6" t="s">
+      <c r="A73" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="3">
+        <v>638</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1.8588E-2</v>
+      </c>
+      <c r="G73" s="3">
+        <v>72</v>
+      </c>
+      <c r="H73" s="3">
+        <v>51</v>
+      </c>
+      <c r="I73" s="3">
         <v>18</v>
       </c>
-      <c r="E73" s="7">
-        <v>638</v>
-      </c>
-      <c r="F73" s="12">
-        <v>1.8588E-2</v>
-      </c>
-      <c r="G73" s="7">
-        <v>72</v>
-      </c>
-      <c r="H73" s="7">
-        <v>51</v>
-      </c>
-      <c r="I73" s="7">
-        <v>18</v>
-      </c>
-      <c r="J73" s="14" t="str">
+      <c r="J73" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:26:46</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" s="7">
+      <c r="A74" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="3">
         <v>614</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="6">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="3">
         <v>73</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="3">
         <v>22</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="3">
         <v>6</v>
       </c>
-      <c r="J74" s="14" t="str">
+      <c r="J74" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:26:47</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E75" s="7">
+      <c r="A75" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="3">
         <v>582</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="6">
         <v>1.9271E-2</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="3">
         <v>74</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="3">
         <v>23</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="3">
         <v>10</v>
       </c>
-      <c r="J75" s="14" t="str">
+      <c r="J75" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:27:45</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="7">
+      <c r="A76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="3">
         <v>583</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="6">
         <v>1.9271E-2</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="3">
         <v>75</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="3">
         <v>52</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="3">
         <v>19</v>
       </c>
-      <c r="J76" s="14" t="str">
+      <c r="J76" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:27:45</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E77" s="7">
+      <c r="A77" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="3">
         <v>557</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="6">
         <v>1.9397999999999999E-2</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="3">
         <v>76</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H77" s="3">
         <v>24</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="3">
         <v>7</v>
       </c>
-      <c r="J77" s="14" t="str">
+      <c r="J77" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:27:56</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E78" s="7">
+      <c r="A78" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="3">
         <v>610</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="6">
         <v>1.9432999999999999E-2</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="3">
         <v>77</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78" s="3">
         <v>25</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="3">
         <v>11</v>
       </c>
-      <c r="J78" s="14" t="str">
+      <c r="J78" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:27:59</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E79" s="7">
+      <c r="A79" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="3">
         <v>646</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="6">
         <v>1.9467999999999999E-2</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G79" s="3">
         <v>78</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H79" s="3">
         <v>26</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79" s="3">
         <v>8</v>
       </c>
-      <c r="J79" s="14" t="str">
+      <c r="J79" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:28:02</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E80" s="7">
+      <c r="A80" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="3">
         <v>552</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="6">
         <v>1.9549E-2</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80" s="3">
         <v>79</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="3">
         <v>27</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80" s="3">
         <v>9</v>
       </c>
-      <c r="J80" s="14" t="str">
+      <c r="J80" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:28:09</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E81" s="7">
+      <c r="A81" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="3">
         <v>629</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F81" s="6">
         <v>1.9779999999999999E-2</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81" s="3">
         <v>80</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H81" s="3">
         <v>53</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81" s="3">
         <v>12</v>
       </c>
-      <c r="J81" s="14" t="str">
+      <c r="J81" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:28:29</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E82" s="7">
+      <c r="A82" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E82" s="3">
         <v>564</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="6">
         <v>1.9814999999999999E-2</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G82" s="3">
         <v>81</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H82" s="3">
         <v>28</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="3">
         <v>2</v>
       </c>
-      <c r="J82" s="14" t="str">
+      <c r="J82" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:28:32</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E83" s="7">
+      <c r="A83" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="3">
         <v>568</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F83" s="6">
         <v>1.9872999999999998E-2</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83" s="3">
         <v>82</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="3">
         <v>29</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="3">
         <v>10</v>
       </c>
-      <c r="J83" s="14" t="str">
+      <c r="J83" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:28:37</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="7">
+      <c r="A84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="3">
         <v>621</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="6">
         <v>1.9918999999999999E-2</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G84" s="3">
         <v>83</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="3">
         <v>54</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="3">
         <v>20</v>
       </c>
-      <c r="J84" s="14" t="str">
+      <c r="J84" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:28:41</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E85" s="7">
+      <c r="A85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" s="3">
         <v>609</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F85" s="6">
         <v>2.0139000000000001E-2</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G85" s="3">
         <v>84</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H85" s="3">
         <v>30</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="3">
         <v>7</v>
       </c>
-      <c r="J85" s="14" t="str">
+      <c r="J85" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:29:00</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="7">
+      <c r="A86" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="3">
         <v>600</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="6">
         <v>2.0174000000000001E-2</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G86" s="3">
         <v>85</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86" s="3">
         <v>55</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="3">
         <v>21</v>
       </c>
-      <c r="J86" s="14" t="str">
+      <c r="J86" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:29:03</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E87" s="7">
+      <c r="A87" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E87" s="3">
         <v>645</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F87" s="6">
         <v>2.0278000000000001E-2</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G87" s="3">
         <v>86</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H87" s="3">
         <v>31</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87" s="3">
         <v>8</v>
       </c>
-      <c r="J87" s="14" t="str">
+      <c r="J87" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:29:12</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E88" s="7">
+      <c r="A88" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E88" s="3">
         <v>558</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F88" s="6">
         <v>2.0313000000000001E-2</v>
       </c>
-      <c r="G88" s="7">
+      <c r="G88" s="3">
         <v>87</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H88" s="3">
         <v>56</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="3">
         <v>2</v>
       </c>
-      <c r="J88" s="14" t="str">
+      <c r="J88" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:29:15</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E89" s="7">
+      <c r="A89" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" s="3">
         <v>566</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F89" s="6">
         <v>2.0636999999999999E-2</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G89" s="3">
         <v>88</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H89" s="3">
         <v>32</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89" s="3">
         <v>3</v>
       </c>
-      <c r="J89" s="14" t="str">
+      <c r="J89" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:29:43</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E90" s="7">
+      <c r="A90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="3">
         <v>576</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F90" s="6">
         <v>2.0636999999999999E-2</v>
       </c>
-      <c r="G90" s="7">
+      <c r="G90" s="3">
         <v>89</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H90" s="3">
         <v>57</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90" s="3">
         <v>13</v>
       </c>
-      <c r="J90" s="14" t="str">
+      <c r="J90" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:29:43</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E91" s="7">
+      <c r="A91" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91" s="3">
         <v>580</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="6">
         <v>2.0926E-2</v>
       </c>
-      <c r="G91" s="7">
+      <c r="G91" s="3">
         <v>90</v>
       </c>
-      <c r="H91" s="7">
+      <c r="H91" s="3">
         <v>33</v>
       </c>
-      <c r="I91" s="7">
+      <c r="I91" s="3">
         <v>11</v>
       </c>
-      <c r="J91" s="14" t="str">
+      <c r="J91" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:30:08</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E92" s="7">
+      <c r="A92" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E92" s="3">
         <v>647</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F92" s="6">
         <v>2.0972000000000001E-2</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G92" s="3">
         <v>91</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H92" s="3">
         <v>34</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92" s="3">
         <v>9</v>
       </c>
-      <c r="J92" s="14" t="str">
+      <c r="J92" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:30:12</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="7">
+      <c r="A93" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="3">
         <v>648</v>
       </c>
-      <c r="F93" s="12">
+      <c r="F93" s="6">
         <v>2.0972000000000001E-2</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G93" s="3">
         <v>92</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93" s="3">
         <v>58</v>
       </c>
-      <c r="I93" s="7">
+      <c r="I93" s="3">
         <v>22</v>
       </c>
-      <c r="J93" s="14" t="str">
+      <c r="J93" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:30:12</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E94" s="7">
+      <c r="A94" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="3">
         <v>640</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F94" s="6">
         <v>2.1134E-2</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G94" s="3">
         <v>93</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H94" s="3">
         <v>35</v>
       </c>
-      <c r="I94" s="7">
+      <c r="I94" s="3">
         <v>12</v>
       </c>
-      <c r="J94" s="14" t="str">
+      <c r="J94" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:30:26</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E95" s="7">
+      <c r="A95" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" s="3">
         <v>650</v>
       </c>
-      <c r="F95" s="12">
+      <c r="F95" s="6">
         <v>2.1505E-2</v>
       </c>
-      <c r="G95" s="7">
+      <c r="G95" s="3">
         <v>94</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H95" s="3">
         <v>36</v>
       </c>
-      <c r="I95" s="7">
+      <c r="I95" s="3">
         <v>12</v>
       </c>
-      <c r="J95" s="14" t="str">
+      <c r="J95" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:30:58</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E96" s="7">
+      <c r="A96" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E96" s="3">
         <v>563</v>
       </c>
-      <c r="F96" s="12">
+      <c r="F96" s="6">
         <v>2.1644E-2</v>
       </c>
-      <c r="G96" s="7">
+      <c r="G96" s="3">
         <v>95</v>
       </c>
-      <c r="H96" s="7">
+      <c r="H96" s="3">
         <v>37</v>
       </c>
-      <c r="I96" s="7">
+      <c r="I96" s="3">
         <v>13</v>
       </c>
-      <c r="J96" s="14" t="str">
+      <c r="J96" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:31:10</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E97" s="7">
+      <c r="A97" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E97" s="3">
         <v>649</v>
       </c>
-      <c r="F97" s="12">
+      <c r="F97" s="6">
         <v>2.1701000000000002E-2</v>
       </c>
-      <c r="G97" s="7">
+      <c r="G97" s="3">
         <v>96</v>
       </c>
-      <c r="H97" s="7">
+      <c r="H97" s="3">
         <v>38</v>
       </c>
-      <c r="I97" s="7">
+      <c r="I97" s="3">
         <v>1</v>
       </c>
-      <c r="J97" s="14" t="str">
+      <c r="J97" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:31:15</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E98" s="7">
+      <c r="A98" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E98" s="3">
         <v>628</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F98" s="6">
         <v>2.1735999999999998E-2</v>
       </c>
-      <c r="G98" s="7">
+      <c r="G98" s="3">
         <v>97</v>
       </c>
-      <c r="H98" s="7">
+      <c r="H98" s="3">
         <v>39</v>
       </c>
-      <c r="I98" s="7">
+      <c r="I98" s="3">
         <v>10</v>
       </c>
-      <c r="J98" s="14" t="str">
+      <c r="J98" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:31:18</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E99" s="7">
+      <c r="A99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="3">
         <v>618</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F99" s="6">
         <v>2.1956E-2</v>
       </c>
-      <c r="G99" s="7">
+      <c r="G99" s="3">
         <v>98</v>
       </c>
-      <c r="H99" s="7">
+      <c r="H99" s="3">
         <v>40</v>
       </c>
-      <c r="I99" s="7">
+      <c r="I99" s="3">
         <v>13</v>
       </c>
-      <c r="J99" s="14" t="str">
+      <c r="J99" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:31:37</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E100" s="7">
+      <c r="A100" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" s="3">
         <v>622</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F100" s="6">
         <v>2.2256999999999999E-2</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G100" s="3">
         <v>99</v>
       </c>
-      <c r="H100" s="7">
+      <c r="H100" s="3">
         <v>41</v>
       </c>
-      <c r="I100" s="7">
+      <c r="I100" s="3">
         <v>4</v>
       </c>
-      <c r="J100" s="14" t="str">
+      <c r="J100" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:32:03</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E101" s="7">
+      <c r="A101" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="3">
         <v>653</v>
       </c>
-      <c r="F101" s="12">
+      <c r="F101" s="6">
         <v>2.2384000000000001E-2</v>
       </c>
-      <c r="G101" s="9">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="7">
+      <c r="H101" s="3">
         <v>59</v>
       </c>
-      <c r="I101" s="7">
+      <c r="I101" s="3">
         <v>14</v>
       </c>
-      <c r="J101" s="14" t="str">
+      <c r="J101" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:32:14</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E102" s="7">
+      <c r="A102" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" s="3">
         <v>588</v>
       </c>
-      <c r="F102" s="12">
+      <c r="F102" s="6">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G102" s="3">
         <v>101</v>
       </c>
-      <c r="H102" s="7">
+      <c r="H102" s="3">
         <v>42</v>
       </c>
-      <c r="I102" s="7">
+      <c r="I102" s="3">
         <v>14</v>
       </c>
-      <c r="J102" s="14" t="str">
+      <c r="J102" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:32:24</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E103" s="7">
+      <c r="A103" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E103" s="3">
         <v>606</v>
       </c>
-      <c r="F103" s="12">
+      <c r="F103" s="6">
         <v>2.2974999999999999E-2</v>
       </c>
-      <c r="G103" s="9">
+      <c r="G103" s="3">
         <v>102</v>
       </c>
-      <c r="H103" s="7">
+      <c r="H103" s="3">
         <v>43</v>
       </c>
-      <c r="I103" s="7">
+      <c r="I103" s="3">
         <v>11</v>
       </c>
-      <c r="J103" s="14" t="str">
+      <c r="J103" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:33:05</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E104" s="7">
+      <c r="A104" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E104" s="3">
         <v>623</v>
       </c>
-      <c r="F104" s="12">
+      <c r="F104" s="6">
         <v>2.3251999999999998E-2</v>
       </c>
-      <c r="G104" s="9">
+      <c r="G104" s="3">
         <v>103</v>
       </c>
-      <c r="H104" s="7">
+      <c r="H104" s="3">
         <v>44</v>
       </c>
-      <c r="I104" s="7">
+      <c r="I104" s="3">
         <v>15</v>
       </c>
-      <c r="J104" s="14" t="str">
+      <c r="J104" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:33:29</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E105" s="7">
+      <c r="A105" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E105" s="3">
         <v>631</v>
       </c>
-      <c r="F105" s="12">
+      <c r="F105" s="6">
         <v>2.3321999999999999E-2</v>
       </c>
-      <c r="G105" s="9">
+      <c r="G105" s="3">
         <v>104</v>
       </c>
-      <c r="H105" s="7">
+      <c r="H105" s="3">
         <v>45</v>
       </c>
-      <c r="I105" s="7">
+      <c r="I105" s="3">
         <v>16</v>
       </c>
-      <c r="J105" s="14" t="str">
+      <c r="J105" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:33:35</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E106" s="7">
+      <c r="A106" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E106" s="3">
         <v>602</v>
       </c>
-      <c r="F106" s="12">
+      <c r="F106" s="6">
         <v>2.4004999999999999E-2</v>
       </c>
-      <c r="G106" s="9">
+      <c r="G106" s="3">
         <v>105</v>
       </c>
-      <c r="H106" s="7">
+      <c r="H106" s="3">
         <v>46</v>
       </c>
-      <c r="I106" s="7">
+      <c r="I106" s="3">
         <v>12</v>
       </c>
-      <c r="J106" s="14" t="str">
+      <c r="J106" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:34:34</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107" s="7">
+      <c r="A107" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="3">
         <v>603</v>
       </c>
-      <c r="F107" s="12">
+      <c r="F107" s="6">
         <v>2.4028000000000001E-2</v>
       </c>
-      <c r="G107" s="9">
+      <c r="G107" s="3">
         <v>106</v>
       </c>
-      <c r="H107" s="7">
+      <c r="H107" s="3">
         <v>60</v>
       </c>
-      <c r="I107" s="7">
+      <c r="I107" s="3">
         <v>22</v>
       </c>
-      <c r="J107" s="14" t="str">
+      <c r="J107" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:34:36</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="7">
+      <c r="A108" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="3">
         <v>581</v>
       </c>
-      <c r="F108" s="12">
+      <c r="F108" s="6">
         <v>2.5069000000000001E-2</v>
       </c>
-      <c r="G108" s="9">
+      <c r="G108" s="3">
         <v>107</v>
       </c>
-      <c r="H108" s="7">
+      <c r="H108" s="3">
         <v>61</v>
       </c>
-      <c r="I108" s="8"/>
-      <c r="J108" s="14" t="str">
+      <c r="I108" s="13"/>
+      <c r="J108" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:36:06</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E109" s="7">
+      <c r="A109" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E109" s="3">
         <v>589</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F109" s="6">
         <v>2.5323999999999999E-2</v>
       </c>
-      <c r="G109" s="9">
+      <c r="G109" s="3">
         <v>108</v>
       </c>
-      <c r="H109" s="7">
+      <c r="H109" s="3">
         <v>47</v>
       </c>
-      <c r="I109" s="7">
+      <c r="I109" s="3">
         <v>14</v>
       </c>
-      <c r="J109" s="14" t="str">
+      <c r="J109" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:36:28</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E110" s="7">
+      <c r="A110" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E110" s="3">
         <v>550</v>
       </c>
-      <c r="F110" s="12">
+      <c r="F110" s="6">
         <v>2.6967999999999999E-2</v>
       </c>
-      <c r="G110" s="9">
+      <c r="G110" s="3">
         <v>109</v>
       </c>
-      <c r="H110" s="7">
+      <c r="H110" s="3">
         <v>48</v>
       </c>
-      <c r="I110" s="7">
+      <c r="I110" s="3">
         <v>17</v>
       </c>
-      <c r="J110" s="14" t="str">
+      <c r="J110" s="12" t="str">
         <f t="shared" si="1"/>
         <v>00:38:50</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E111" s="7">
-        <v>630</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="J111" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DNF</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
+    <row r="111" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G111:I111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/results/Kx5.xlsx
+++ b/results/Kx5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sx5standings\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB6D7A5-6D7A-4ADF-8A2E-E0C07AFE8816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D570760B-C500-4C17-A0E0-4523A9EFF4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="231">
   <si>
     <r>
       <rPr>
@@ -2253,6 +2253,12 @@
   </si>
   <si>
     <t>CatPos</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
 </sst>
 </file>
@@ -2392,12 +2398,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2412,6 +2412,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2751,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2767,41 +2773,45 @@
     <col min="7" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" customWidth="1"/>
     <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2829,12 +2839,16 @@
       <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="12" t="str">
+      <c r="J2" s="10" t="str">
         <f>TEXT(F2,"hh:mm:ss")</f>
         <v>00:16:44</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" t="str">
+        <f>IF(LEFT(D2,1)="M","M","F")</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2860,12 +2874,16 @@
       <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="J3" s="12" t="str">
+      <c r="J3" s="10" t="str">
         <f t="shared" ref="J3:J66" si="0">TEXT(F3,"hh:mm:ss")</f>
         <v>00:17:26</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="1">IF(LEFT(D3,1)="M","M","F")</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2891,12 +2909,16 @@
       <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="J4" s="12" t="str">
+      <c r="J4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:17:33</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2924,12 +2946,16 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="12" t="str">
+      <c r="J5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:18:04</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2955,12 +2981,16 @@
       <c r="I6" s="3">
         <v>4</v>
       </c>
-      <c r="J6" s="12" t="str">
+      <c r="J6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:18:49</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2988,12 +3018,16 @@
       <c r="I7" s="3">
         <v>2</v>
       </c>
-      <c r="J7" s="12" t="str">
+      <c r="J7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:18:50</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3021,12 +3055,16 @@
       <c r="I8" s="3">
         <v>5</v>
       </c>
-      <c r="J8" s="12" t="str">
+      <c r="J8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:19:10</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -3052,12 +3090,16 @@
       <c r="I9" s="3">
         <v>6</v>
       </c>
-      <c r="J9" s="12" t="str">
+      <c r="J9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:19:19</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -3085,12 +3127,16 @@
       <c r="I10" s="3">
         <v>3</v>
       </c>
-      <c r="J10" s="12" t="str">
+      <c r="J10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:19:21</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -3116,12 +3162,16 @@
       <c r="I11" s="3">
         <v>7</v>
       </c>
-      <c r="J11" s="12" t="str">
+      <c r="J11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:19:22</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3147,12 +3197,16 @@
       <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="12" t="str">
+      <c r="J12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:19:24</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -3180,12 +3234,16 @@
       <c r="I13" s="3">
         <v>8</v>
       </c>
-      <c r="J13" s="12" t="str">
+      <c r="J13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:19:39</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" t="str">
+        <f>IF(LEFT(D13,1)="M","M","F")</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -3211,12 +3269,16 @@
       <c r="I14" s="3">
         <v>2</v>
       </c>
-      <c r="J14" s="12" t="str">
+      <c r="J14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:19:43</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -3244,12 +3306,16 @@
       <c r="I15" s="3">
         <v>9</v>
       </c>
-      <c r="J15" s="12" t="str">
+      <c r="J15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:20:38</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -3275,12 +3341,16 @@
       <c r="I16" s="3">
         <v>1</v>
       </c>
-      <c r="J16" s="12" t="str">
+      <c r="J16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:20:44</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -3306,12 +3376,16 @@
       <c r="I17" s="3">
         <v>2</v>
       </c>
-      <c r="J17" s="12" t="str">
+      <c r="J17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:20:44</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -3337,12 +3411,16 @@
       <c r="I18" s="3">
         <v>10</v>
       </c>
-      <c r="J18" s="12" t="str">
+      <c r="J18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:21:07</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -3368,12 +3446,16 @@
       <c r="I19" s="3">
         <v>11</v>
       </c>
-      <c r="J19" s="12" t="str">
+      <c r="J19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:21:13</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -3401,12 +3483,16 @@
       <c r="I20" s="3">
         <v>3</v>
       </c>
-      <c r="J20" s="12" t="str">
+      <c r="J20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:21:29</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -3432,12 +3518,16 @@
       <c r="I21" s="3">
         <v>4</v>
       </c>
-      <c r="J21" s="12" t="str">
+      <c r="J21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:21:55</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -3465,12 +3555,16 @@
       <c r="I22" s="3">
         <v>3</v>
       </c>
-      <c r="J22" s="12" t="str">
+      <c r="J22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:22:02</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
@@ -3498,12 +3592,16 @@
       <c r="I23" s="3">
         <v>4</v>
       </c>
-      <c r="J23" s="12" t="str">
+      <c r="J23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:22:04</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -3531,12 +3629,16 @@
       <c r="I24" s="3">
         <v>5</v>
       </c>
-      <c r="J24" s="12" t="str">
+      <c r="J24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:22:07</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
@@ -3562,12 +3664,16 @@
       <c r="I25" s="3">
         <v>1</v>
       </c>
-      <c r="J25" s="12" t="str">
+      <c r="J25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:22:13</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
@@ -3593,12 +3699,16 @@
       <c r="I26" s="3">
         <v>12</v>
       </c>
-      <c r="J26" s="12" t="str">
+      <c r="J26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:22:13</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -3626,12 +3736,16 @@
       <c r="I27" s="3">
         <v>13</v>
       </c>
-      <c r="J27" s="12" t="str">
+      <c r="J27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:22:19</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -3659,12 +3773,16 @@
       <c r="I28" s="3">
         <v>2</v>
       </c>
-      <c r="J28" s="12" t="str">
+      <c r="J28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:22:24</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -3692,12 +3810,16 @@
       <c r="I29" s="3">
         <v>5</v>
       </c>
-      <c r="J29" s="12" t="str">
+      <c r="J29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:22:39</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
@@ -3725,12 +3847,16 @@
       <c r="I30" s="3">
         <v>4</v>
       </c>
-      <c r="J30" s="12" t="str">
+      <c r="J30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:22:54</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>71</v>
       </c>
@@ -3758,12 +3884,16 @@
       <c r="I31" s="3">
         <v>6</v>
       </c>
-      <c r="J31" s="12" t="str">
+      <c r="J31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:22:55</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>74</v>
       </c>
@@ -3789,12 +3919,16 @@
       <c r="I32" s="3">
         <v>14</v>
       </c>
-      <c r="J32" s="12" t="str">
+      <c r="J32" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:23:04</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
@@ -3820,12 +3954,16 @@
       <c r="I33" s="3">
         <v>6</v>
       </c>
-      <c r="J33" s="12" t="str">
+      <c r="J33" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:23:09</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>62</v>
       </c>
@@ -3853,12 +3991,16 @@
       <c r="I34" s="3">
         <v>5</v>
       </c>
-      <c r="J34" s="12" t="str">
+      <c r="J34" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:23:12</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -3886,12 +4028,16 @@
       <c r="I35" s="3">
         <v>7</v>
       </c>
-      <c r="J35" s="12" t="str">
+      <c r="J35" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:23:19</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
@@ -3919,12 +4065,16 @@
       <c r="I36" s="3">
         <v>3</v>
       </c>
-      <c r="J36" s="12" t="str">
+      <c r="J36" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:23:20</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -3950,12 +4100,16 @@
       <c r="I37" s="3">
         <v>8</v>
       </c>
-      <c r="J37" s="12" t="str">
+      <c r="J37" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:23:29</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>26</v>
       </c>
@@ -3981,12 +4135,16 @@
       <c r="I38" s="3">
         <v>15</v>
       </c>
-      <c r="J38" s="12" t="str">
+      <c r="J38" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:23:32</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>85</v>
       </c>
@@ -4012,12 +4170,16 @@
       <c r="I39" s="3">
         <v>16</v>
       </c>
-      <c r="J39" s="12" t="str">
+      <c r="J39" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:23:35</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>87</v>
       </c>
@@ -4043,12 +4205,16 @@
       <c r="I40" s="3">
         <v>6</v>
       </c>
-      <c r="J40" s="12" t="str">
+      <c r="J40" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:23:36</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>89</v>
       </c>
@@ -4074,12 +4240,16 @@
       <c r="I41" s="3">
         <v>7</v>
       </c>
-      <c r="J41" s="12" t="str">
+      <c r="J41" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:23:37</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K41" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
@@ -4105,12 +4275,16 @@
       <c r="I42" s="3">
         <v>17</v>
       </c>
-      <c r="J42" s="12" t="str">
+      <c r="J42" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:23:39</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>91</v>
       </c>
@@ -4138,12 +4312,16 @@
       <c r="I43" s="3">
         <v>9</v>
       </c>
-      <c r="J43" s="12" t="str">
+      <c r="J43" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:23:41</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>93</v>
       </c>
@@ -4169,12 +4347,16 @@
       <c r="I44" s="3">
         <v>8</v>
       </c>
-      <c r="J44" s="12" t="str">
+      <c r="J44" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:23:49</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>95</v>
       </c>
@@ -4202,12 +4384,16 @@
       <c r="I45" s="3">
         <v>1</v>
       </c>
-      <c r="J45" s="12" t="str">
+      <c r="J45" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:23:57</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K45" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>99</v>
       </c>
@@ -4235,12 +4421,16 @@
       <c r="I46" s="3">
         <v>18</v>
       </c>
-      <c r="J46" s="12" t="str">
+      <c r="J46" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:23:57</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -4266,12 +4456,16 @@
       <c r="I47" s="3">
         <v>7</v>
       </c>
-      <c r="J47" s="12" t="str">
+      <c r="J47" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:24:12</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>104</v>
       </c>
@@ -4297,12 +4491,16 @@
       <c r="I48" s="3">
         <v>19</v>
       </c>
-      <c r="J48" s="12" t="str">
+      <c r="J48" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:24:20</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K48" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
@@ -4330,12 +4528,16 @@
       <c r="I49" s="3">
         <v>20</v>
       </c>
-      <c r="J49" s="12" t="str">
+      <c r="J49" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:24:25</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>19</v>
       </c>
@@ -4361,12 +4563,16 @@
       <c r="I50" s="3">
         <v>10</v>
       </c>
-      <c r="J50" s="12" t="str">
+      <c r="J50" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:24:34</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>109</v>
       </c>
@@ -4392,12 +4598,16 @@
       <c r="I51" s="3">
         <v>9</v>
       </c>
-      <c r="J51" s="12" t="str">
+      <c r="J51" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:24:54</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K51" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>111</v>
       </c>
@@ -4425,12 +4635,16 @@
       <c r="I52" s="3">
         <v>2</v>
       </c>
-      <c r="J52" s="12" t="str">
+      <c r="J52" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:24:56</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>113</v>
       </c>
@@ -4456,12 +4670,16 @@
       <c r="I53" s="3">
         <v>8</v>
       </c>
-      <c r="J53" s="12" t="str">
+      <c r="J53" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:25:00</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>114</v>
       </c>
@@ -4489,12 +4707,16 @@
       <c r="I54" s="3">
         <v>1</v>
       </c>
-      <c r="J54" s="12" t="str">
+      <c r="J54" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:25:18</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>118</v>
       </c>
@@ -4520,12 +4742,16 @@
       <c r="I55" s="3">
         <v>11</v>
       </c>
-      <c r="J55" s="12" t="str">
+      <c r="J55" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:25:23</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K55" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>120</v>
       </c>
@@ -4551,12 +4777,16 @@
       <c r="I56" s="3">
         <v>1</v>
       </c>
-      <c r="J56" s="12" t="str">
+      <c r="J56" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:25:29</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K56" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>123</v>
       </c>
@@ -4582,12 +4812,16 @@
       <c r="I57" s="3">
         <v>12</v>
       </c>
-      <c r="J57" s="12" t="str">
+      <c r="J57" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:25:32</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K57" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>125</v>
       </c>
@@ -4613,12 +4847,16 @@
       <c r="I58" s="3">
         <v>4</v>
       </c>
-      <c r="J58" s="12" t="str">
+      <c r="J58" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:25:38</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K58" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>127</v>
       </c>
@@ -4646,12 +4884,16 @@
       <c r="I59" s="3">
         <v>13</v>
       </c>
-      <c r="J59" s="12" t="str">
+      <c r="J59" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:26:09</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K59" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>130</v>
       </c>
@@ -4677,12 +4919,16 @@
       <c r="I60" s="3">
         <v>14</v>
       </c>
-      <c r="J60" s="12" t="str">
+      <c r="J60" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:26:15</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K60" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>132</v>
       </c>
@@ -4708,12 +4954,16 @@
       <c r="I61" s="3">
         <v>15</v>
       </c>
-      <c r="J61" s="12" t="str">
+      <c r="J61" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:26:16</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K61" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>134</v>
       </c>
@@ -4741,12 +4991,16 @@
       <c r="I62" s="3">
         <v>9</v>
       </c>
-      <c r="J62" s="12" t="str">
+      <c r="J62" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:26:19</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K62" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>136</v>
       </c>
@@ -4774,12 +5028,16 @@
       <c r="I63" s="3">
         <v>5</v>
       </c>
-      <c r="J63" s="12" t="str">
+      <c r="J63" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:26:23</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K63" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>138</v>
       </c>
@@ -4807,12 +5065,16 @@
       <c r="I64" s="3">
         <v>3</v>
       </c>
-      <c r="J64" s="12" t="str">
+      <c r="J64" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:26:24</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K64" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>140</v>
       </c>
@@ -4840,12 +5102,16 @@
       <c r="I65" s="3">
         <v>4</v>
       </c>
-      <c r="J65" s="12" t="str">
+      <c r="J65" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:26:25</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K65" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>142</v>
       </c>
@@ -4873,12 +5139,16 @@
       <c r="I66" s="3">
         <v>16</v>
       </c>
-      <c r="J66" s="12" t="str">
+      <c r="J66" s="10" t="str">
         <f t="shared" si="0"/>
         <v>00:26:26</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K66" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -4904,12 +5174,16 @@
       <c r="I67" s="3">
         <v>10</v>
       </c>
-      <c r="J67" s="12" t="str">
-        <f t="shared" ref="J67:J110" si="1">TEXT(F67,"hh:mm:ss")</f>
+      <c r="J67" s="10" t="str">
+        <f t="shared" ref="J67:J110" si="2">TEXT(F67,"hh:mm:ss")</f>
         <v>00:26:27</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K110" si="3">IF(LEFT(D67,1)="M","M","F")</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>145</v>
       </c>
@@ -4937,12 +5211,16 @@
       <c r="I68" s="3">
         <v>11</v>
       </c>
-      <c r="J68" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J68" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:26:28</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K68" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>147</v>
       </c>
@@ -4970,12 +5248,16 @@
       <c r="I69" s="3">
         <v>21</v>
       </c>
-      <c r="J69" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J69" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:26:32</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>149</v>
       </c>
@@ -5001,12 +5283,16 @@
       <c r="I70" s="3">
         <v>5</v>
       </c>
-      <c r="J70" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J70" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:26:43</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K70" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>151</v>
       </c>
@@ -5032,12 +5318,16 @@
       <c r="I71" s="3">
         <v>17</v>
       </c>
-      <c r="J71" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J71" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:26:44</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K71" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>153</v>
       </c>
@@ -5063,12 +5353,16 @@
       <c r="I72" s="3">
         <v>6</v>
       </c>
-      <c r="J72" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J72" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:26:45</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K72" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>154</v>
       </c>
@@ -5096,12 +5390,16 @@
       <c r="I73" s="3">
         <v>18</v>
       </c>
-      <c r="J73" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J73" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:26:46</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K73" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>156</v>
       </c>
@@ -5127,12 +5425,16 @@
       <c r="I74" s="3">
         <v>6</v>
       </c>
-      <c r="J74" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J74" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:26:47</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K74" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>158</v>
       </c>
@@ -5160,12 +5462,16 @@
       <c r="I75" s="3">
         <v>10</v>
       </c>
-      <c r="J75" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J75" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:27:45</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K75" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -5193,12 +5499,16 @@
       <c r="I76" s="3">
         <v>19</v>
       </c>
-      <c r="J76" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J76" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:27:45</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K76" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>160</v>
       </c>
@@ -5226,12 +5536,16 @@
       <c r="I77" s="3">
         <v>7</v>
       </c>
-      <c r="J77" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J77" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:27:56</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K77" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>162</v>
       </c>
@@ -5257,12 +5571,16 @@
       <c r="I78" s="3">
         <v>11</v>
       </c>
-      <c r="J78" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J78" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:27:59</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K78" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>164</v>
       </c>
@@ -5290,12 +5608,16 @@
       <c r="I79" s="3">
         <v>8</v>
       </c>
-      <c r="J79" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J79" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:28:02</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K79" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>167</v>
       </c>
@@ -5321,12 +5643,16 @@
       <c r="I80" s="3">
         <v>9</v>
       </c>
-      <c r="J80" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J80" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:28:09</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K80" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>132</v>
       </c>
@@ -5352,12 +5678,16 @@
       <c r="I81" s="3">
         <v>12</v>
       </c>
-      <c r="J81" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J81" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:28:29</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K81" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>120</v>
       </c>
@@ -5383,12 +5713,16 @@
       <c r="I82" s="3">
         <v>2</v>
       </c>
-      <c r="J82" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J82" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:28:32</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K82" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>170</v>
       </c>
@@ -5416,12 +5750,16 @@
       <c r="I83" s="3">
         <v>10</v>
       </c>
-      <c r="J83" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J83" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:28:37</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K83" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>132</v>
       </c>
@@ -5447,12 +5785,16 @@
       <c r="I84" s="3">
         <v>20</v>
       </c>
-      <c r="J84" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J84" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:28:41</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K84" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>172</v>
       </c>
@@ -5478,12 +5820,16 @@
       <c r="I85" s="3">
         <v>7</v>
       </c>
-      <c r="J85" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J85" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:29:00</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K85" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>174</v>
       </c>
@@ -5509,12 +5855,16 @@
       <c r="I86" s="3">
         <v>21</v>
       </c>
-      <c r="J86" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J86" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:29:03</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K86" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>176</v>
       </c>
@@ -5542,12 +5892,16 @@
       <c r="I87" s="3">
         <v>8</v>
       </c>
-      <c r="J87" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J87" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:29:12</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K87" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>178</v>
       </c>
@@ -5575,12 +5929,16 @@
       <c r="I88" s="3">
         <v>2</v>
       </c>
-      <c r="J88" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J88" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:29:15</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K88" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>180</v>
       </c>
@@ -5608,12 +5966,16 @@
       <c r="I89" s="3">
         <v>3</v>
       </c>
-      <c r="J89" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J89" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:29:43</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K89" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>6</v>
       </c>
@@ -5641,12 +6003,16 @@
       <c r="I90" s="3">
         <v>13</v>
       </c>
-      <c r="J90" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J90" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:29:43</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K90" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>183</v>
       </c>
@@ -5672,12 +6038,16 @@
       <c r="I91" s="3">
         <v>11</v>
       </c>
-      <c r="J91" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J91" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:30:08</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K91" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>185</v>
       </c>
@@ -5703,12 +6073,16 @@
       <c r="I92" s="3">
         <v>9</v>
       </c>
-      <c r="J92" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J92" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:30:12</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K92" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>187</v>
       </c>
@@ -5734,12 +6108,16 @@
       <c r="I93" s="3">
         <v>22</v>
       </c>
-      <c r="J93" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J93" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:30:12</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K93" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>189</v>
       </c>
@@ -5765,12 +6143,16 @@
       <c r="I94" s="3">
         <v>12</v>
       </c>
-      <c r="J94" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J94" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:30:26</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K94" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>190</v>
       </c>
@@ -5796,12 +6178,16 @@
       <c r="I95" s="3">
         <v>12</v>
       </c>
-      <c r="J95" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J95" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:30:58</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K95" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>192</v>
       </c>
@@ -5827,12 +6213,16 @@
       <c r="I96" s="3">
         <v>13</v>
       </c>
-      <c r="J96" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J96" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:31:10</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K96" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>194</v>
       </c>
@@ -5858,12 +6248,16 @@
       <c r="I97" s="3">
         <v>1</v>
       </c>
-      <c r="J97" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J97" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:31:15</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K97" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>197</v>
       </c>
@@ -5891,12 +6285,16 @@
       <c r="I98" s="3">
         <v>10</v>
       </c>
-      <c r="J98" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J98" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:31:18</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K98" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>125</v>
       </c>
@@ -5924,12 +6322,16 @@
       <c r="I99" s="3">
         <v>13</v>
       </c>
-      <c r="J99" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J99" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:31:37</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K99" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>201</v>
       </c>
@@ -5955,12 +6357,16 @@
       <c r="I100" s="3">
         <v>4</v>
       </c>
-      <c r="J100" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J100" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:32:03</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K100" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>203</v>
       </c>
@@ -5988,12 +6394,16 @@
       <c r="I101" s="3">
         <v>14</v>
       </c>
-      <c r="J101" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J101" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:32:14</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K101" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>204</v>
       </c>
@@ -6021,12 +6431,16 @@
       <c r="I102" s="3">
         <v>14</v>
       </c>
-      <c r="J102" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J102" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:32:24</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K102" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>207</v>
       </c>
@@ -6052,12 +6466,16 @@
       <c r="I103" s="3">
         <v>11</v>
       </c>
-      <c r="J103" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J103" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:33:05</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K103" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>209</v>
       </c>
@@ -6083,12 +6501,16 @@
       <c r="I104" s="3">
         <v>15</v>
       </c>
-      <c r="J104" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J104" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:33:29</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K104" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>210</v>
       </c>
@@ -6114,12 +6536,16 @@
       <c r="I105" s="3">
         <v>16</v>
       </c>
-      <c r="J105" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J105" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:33:35</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K105" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>211</v>
       </c>
@@ -6147,12 +6573,16 @@
       <c r="I106" s="3">
         <v>12</v>
       </c>
-      <c r="J106" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J106" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:34:34</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K106" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>214</v>
       </c>
@@ -6180,12 +6610,16 @@
       <c r="I107" s="3">
         <v>22</v>
       </c>
-      <c r="J107" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J107" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:34:36</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K107" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>215</v>
       </c>
@@ -6193,7 +6627,9 @@
         <v>184</v>
       </c>
       <c r="C108" s="4"/>
-      <c r="D108" s="13"/>
+      <c r="D108" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="E108" s="3">
         <v>581</v>
       </c>
@@ -6206,13 +6642,17 @@
       <c r="H108" s="3">
         <v>61</v>
       </c>
-      <c r="I108" s="13"/>
-      <c r="J108" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:36:06</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K108" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>216</v>
       </c>
@@ -6238,12 +6678,16 @@
       <c r="I109" s="3">
         <v>14</v>
       </c>
-      <c r="J109" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J109" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:36:28</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K109" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>218</v>
       </c>
@@ -6269,21 +6713,25 @@
       <c r="I110" s="3">
         <v>17</v>
       </c>
-      <c r="J110" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J110" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>00:38:50</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K110" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
